--- a/excel_with_subclasses/basic/watercourse.xlsx
+++ b/excel_with_subclasses/basic/watercourse.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
   <si>
     <t>subclass</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Q1494514</t>
   </si>
   <si>
-    <t>Q15709086</t>
-  </si>
-  <si>
     <t>Q15842515</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Q607657</t>
   </si>
   <si>
-    <t>Q63565252</t>
-  </si>
-  <si>
     <t>Q661702</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>Q83287935</t>
   </si>
   <si>
-    <t>Q88480</t>
-  </si>
-  <si>
     <t>Q8963323</t>
   </si>
   <si>
@@ -295,9 +286,6 @@
     <t>Umflut</t>
   </si>
   <si>
-    <t>Moats</t>
-  </si>
-  <si>
     <t>rivulet</t>
   </si>
   <si>
@@ -424,9 +412,6 @@
     <t>Левада</t>
   </si>
   <si>
-    <t>ручей</t>
-  </si>
-  <si>
     <t>протока</t>
   </si>
   <si>
@@ -460,9 +445,6 @@
     <t>back channel</t>
   </si>
   <si>
-    <t>Ров</t>
-  </si>
-  <si>
     <t>galacho</t>
   </si>
   <si>
@@ -494,9 +476,6 @@
   </si>
   <si>
     <t>Q209333_Старица</t>
-  </si>
-  <si>
-    <t>Q88480_Ров</t>
   </si>
   <si>
     <t>Q47521_поток</t>
@@ -887,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -920,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -931,10 +910,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -942,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -953,10 +932,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -964,10 +943,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -975,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -986,10 +965,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -997,10 +976,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1008,10 +987,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1019,10 +998,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1030,10 +1009,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1041,10 +1020,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1052,10 +1031,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1063,10 +1042,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1074,10 +1053,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1085,10 +1064,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1096,10 +1075,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1107,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1118,10 +1097,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1129,10 +1108,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1140,10 +1119,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1151,10 +1130,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1162,10 +1141,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1173,10 +1152,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1184,10 +1163,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1195,10 +1174,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1206,10 +1185,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1217,10 +1196,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1228,7 +1207,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>154</v>
@@ -1239,10 +1218,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1250,10 +1229,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1261,10 +1240,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1272,10 +1251,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1283,10 +1262,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1294,10 +1273,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1305,10 +1284,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1316,10 +1295,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1327,10 +1306,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1338,10 +1317,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1349,10 +1328,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1360,10 +1339,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1371,10 +1350,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1382,7 +1361,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
         <v>162</v>
@@ -1393,10 +1372,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1404,10 +1383,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1415,10 +1394,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1426,10 +1405,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1437,10 +1416,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1448,10 +1427,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1459,10 +1438,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1470,10 +1449,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1481,10 +1460,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1492,10 +1471,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1503,10 +1482,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1514,10 +1493,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1525,10 +1504,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1536,10 +1515,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1547,10 +1526,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1558,10 +1537,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1569,10 +1548,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1580,10 +1559,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1591,10 +1570,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1602,10 +1581,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1613,10 +1592,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1624,10 +1603,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1635,10 +1614,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1646,10 +1625,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1657,10 +1636,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1668,10 +1647,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1679,10 +1658,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1690,10 +1669,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1701,43 +1680,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
